--- a/Baza de date Plesacov TURP.xlsx
+++ b/Baza de date Plesacov TURP.xlsx
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CQ85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="BV1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="BY1" sqref="BY1:BY1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
